--- a/trackers/dataset-tracker.xlsx
+++ b/trackers/dataset-tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\advancing-into-analytics-book\trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78B8748-CE15-4594-A040-3FEEF944072D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EA79A-FAF3-4B08-A575-6ABD6FB8E52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2955" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Chapter</t>
   </si>
@@ -49,6 +48,27 @@
   </si>
   <si>
     <t>exercises</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>These are datasets found in the book's repository.</t>
+  </si>
+  <si>
+    <t>I want to make sure I have all the datasets needed there and that there aren't any extras.</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>ais</t>
   </si>
 </sst>
 </file>
@@ -104,7 +124,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3C8AB15-19AB-4741-B9BE-F5D2A12ADEB4}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3C8AB15-19AB-4741-B9BE-F5D2A12ADEB4}" name="Table1" displayName="Table1" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{50072D59-6AE3-45AC-B105-DE1E89A1F03F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
+    <sortCondition ref="A1:A7"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F70528D8-5244-47FF-AB8B-A13D19288F8A}" name="Chapter"/>
     <tableColumn id="2" xr3:uid="{72541799-DA31-4369-880A-1358D6B35A7A}" name="Dataset"/>
@@ -377,19 +401,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" customWidth="1"/>
-    <col min="3" max="3" width="27.89453125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,14 +424,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
